--- a/data/trans_orig/P14A23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A23-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{663914E0-7F8E-4439-9170-5C4631294689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9BD2167-0670-4268-BF54-54C8D22E02E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAEE9476-39D8-4E99-BA81-100B175CD079}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F133C37-B544-4444-8B4D-F3D52F7F30B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="144">
   <si>
     <t>Población que recibe medicación o terapia por depresión o ansiedad en 2012 (Tasa respuesta: 7,79%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>92,08%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,49 @@
     <t>82,66%</t>
   </si>
   <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>82,24%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>17,76%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,16 +189,16 @@
     <t>63,76%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>71,38%</t>
+    <t>71,2%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -213,19 +207,19 @@
     <t>82,11%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
   </si>
   <si>
     <t>5,08%</t>
@@ -234,70 +228,70 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,62%</t>
+    <t>28,8%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,13 +303,13 @@
     <t>93,6%</t>
   </si>
   <si>
-    <t>79,33%</t>
+    <t>77,94%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>94,85%</t>
+    <t>94,48%</t>
   </si>
   <si>
     <t>99,38%</t>
@@ -324,7 +318,7 @@
     <t>97,24%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>93,53%</t>
   </si>
   <si>
     <t>98,96%</t>
@@ -333,7 +327,7 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>20,67%</t>
+    <t>22,06%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -342,7 +336,7 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>5,15%</t>
+    <t>5,52%</t>
   </si>
   <si>
     <t>2,76%</t>
@@ -351,55 +345,55 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>88,59%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>11,41%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -426,7 +420,7 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>89,58%</t>
+    <t>89,9%</t>
   </si>
   <si>
     <t>98,95%</t>
@@ -435,19 +429,19 @@
     <t>96,51%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>4,21%</t>
@@ -456,25 +450,25 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>10,42%</t>
+    <t>10,1%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
 </sst>
 </file>
@@ -886,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B24C13-EBF9-459E-B61C-CE675B160F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8A7558-FE64-413C-86CA-B0918EC3EC17}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1201,7 +1195,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1216,13 +1210,13 @@
         <v>10475</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -1231,13 +1225,13 @@
         <v>11953</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -1246,13 +1240,13 @@
         <v>22428</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1308,7 +1302,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1320,13 +1314,13 @@
         <v>7822</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -1335,13 +1329,13 @@
         <v>16674</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -1350,13 +1344,13 @@
         <v>24496</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1371,13 +1365,13 @@
         <v>4446</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1386,13 +1380,13 @@
         <v>893</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1401,13 +1395,13 @@
         <v>5339</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,13 +1469,13 @@
         <v>119665</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>349</v>
@@ -1490,13 +1484,13 @@
         <v>370872</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -1505,13 +1499,13 @@
         <v>490536</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1526,13 +1520,13 @@
         <v>20246</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -1541,13 +1535,13 @@
         <v>31478</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -1556,13 +1550,13 @@
         <v>51725</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,7 +1612,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310B16DA-50A1-44E0-B011-9DBF6E9F4EF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F191C6-5AFE-45F2-8F93-1AB165959F45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1654,7 +1648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1761,13 +1755,13 @@
         <v>31514</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -1776,13 +1770,13 @@
         <v>153264</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>170</v>
@@ -1791,13 +1785,13 @@
         <v>184779</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1806,13 @@
         <v>2157</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -1827,13 +1821,13 @@
         <v>3091</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -1842,13 +1836,13 @@
         <v>5248</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,28 +1910,28 @@
         <v>53708</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
       </c>
       <c r="I7" s="7">
-        <v>154161</v>
+        <v>154160</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>192</v>
@@ -1946,13 +1940,13 @@
         <v>207868</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1961,13 @@
         <v>1916</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -1982,13 +1976,13 @@
         <v>8435</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1997,13 +1991,13 @@
         <v>10351</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,7 +2024,7 @@
         <v>149</v>
       </c>
       <c r="I9" s="7">
-        <v>162596</v>
+        <v>162595</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2071,10 +2065,10 @@
         <v>7402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2086,10 +2080,10 @@
         <v>11671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2101,10 +2095,10 @@
         <v>19073</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2122,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2137,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2152,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2220,13 @@
         <v>92624</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>289</v>
@@ -2241,13 +2235,13 @@
         <v>319096</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -2256,13 +2250,13 @@
         <v>411720</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2271,13 @@
         <v>4073</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2292,13 +2286,13 @@
         <v>11526</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2307,13 +2301,13 @@
         <v>15599</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A23-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9BD2167-0670-4268-BF54-54C8D22E02E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{969AE149-886C-4D7C-8428-ADA049034892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F133C37-B544-4444-8B4D-F3D52F7F30B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1CF3A75-321D-40D8-BF51-C33630FAEB33}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>92,08%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,49 +138,55 @@
     <t>82,66%</t>
   </si>
   <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>82,24%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>17,76%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -189,16 +195,16 @@
     <t>63,76%</t>
   </si>
   <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>71,2%</t>
+    <t>71,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -207,19 +213,19 @@
     <t>82,11%</t>
   </si>
   <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>5,08%</t>
@@ -228,88 +234,82 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,8%</t>
+    <t>28,2%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>94,5%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>5,5%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2015 (Tasa respuesta: 6,03%)</t>
+    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2016 (Tasa respuesta: 6,03%)</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>77,94%</t>
+    <t>78,09%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>94,48%</t>
+    <t>94,52%</t>
   </si>
   <si>
     <t>99,38%</t>
@@ -318,16 +318,16 @@
     <t>97,24%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>22,06%</t>
+    <t>21,91%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -336,64 +336,64 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>5,52%</t>
+    <t>5,48%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>88,15%</t>
+    <t>87,53%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>11,85%</t>
+    <t>12,47%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -420,55 +420,55 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8A7558-FE64-413C-86CA-B0918EC3EC17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00DA6F5-C42E-44AD-A022-7FEB95315FE3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1195,7 +1195,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1210,13 +1210,13 @@
         <v>10475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -1225,13 +1225,13 @@
         <v>11953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -1240,13 +1240,13 @@
         <v>22428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1302,7 +1302,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1314,13 +1314,13 @@
         <v>7822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -1329,13 +1329,13 @@
         <v>16674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -1344,13 +1344,13 @@
         <v>24496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1365,13 +1365,13 @@
         <v>4446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1380,13 +1380,13 @@
         <v>893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1395,13 +1395,13 @@
         <v>5339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1469,13 @@
         <v>119665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>349</v>
@@ -1484,13 +1484,13 @@
         <v>370872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -1499,13 +1499,13 @@
         <v>490536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,13 +1520,13 @@
         <v>20246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -1535,13 +1535,13 @@
         <v>31478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F191C6-5AFE-45F2-8F93-1AB165959F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EE70C5-AC9F-4106-BC98-3C795D0C205C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1761,7 +1761,7 @@
         <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -1809,7 +1809,7 @@
         <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>96</v>
@@ -1916,7 +1916,7 @@
         <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -1964,7 +1964,7 @@
         <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>112</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2065,7 +2065,7 @@
         <v>7402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>119</v>
@@ -2080,7 +2080,7 @@
         <v>11671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>120</v>
@@ -2095,7 +2095,7 @@
         <v>19073</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>121</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>122</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>122</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>122</v>
